--- a/team_specific_matrix/Occidental_B.xlsx
+++ b/team_specific_matrix/Occidental_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0.3</v>
+      </c>
+      <c r="R6">
         <v>0.2</v>
-      </c>
-      <c r="R6">
-        <v>0.4</v>
       </c>
       <c r="S6">
         <v>0.4</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.25</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1666666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="R8">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="S8">
-        <v>0.3333333333333333</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1818181818181818</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="R9">
-        <v>0.2727272727272727</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="S9">
-        <v>0.4545454545454545</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1090909090909091</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01818181818181818</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03636363636363636</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1636363636363636</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1636363636363636</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="R10">
-        <v>0.1636363636363636</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="S10">
-        <v>0.3454545454545455</v>
+        <v>0.3050847457627119</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.25</v>
+      </c>
+      <c r="L11">
         <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J16">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1538461538461539</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.1538461538461539</v>
+        <v>0.04</v>
       </c>
       <c r="J17">
-        <v>0.6153846153846154</v>
+        <v>0.58</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1176470588235294</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.1764705882352941</v>
+        <v>0.12</v>
       </c>
       <c r="J18">
-        <v>0.5294117647058824</v>
+        <v>0.52</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.08</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02702702702702703</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1891891891891892</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I19">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J19">
-        <v>0.4594594594594595</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="K19">
-        <v>0.02702702702702703</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.05405405405405406</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1351351351351351</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.02702702702702703</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
   </sheetData>
